--- a/results/I3_N5_M2_T45_C200_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1216.692642913246</v>
+        <v>19.25725746793464</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.3774807691977</v>
+        <v>19.25725746793464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.352178333078672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.987340477126318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1198.680000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.23614766451188</v>
+        <v>37.66223190247689</v>
       </c>
     </row>
     <row r="5">
@@ -947,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.34465129663435</v>
+        <v>41.49915775529188</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.07307351732687</v>
+        <v>34.79834375740628</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,118 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.3950000000004</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1221,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.4750000000004</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.3200000000004</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
@@ -1243,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>168.7700000000004</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1254,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>166.2650000000004</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1265,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>319.4600000000002</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>311.5</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>323.4300000000002</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>319.05</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
@@ -1309,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>325.9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1331,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1353,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1364,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1375,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999993</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1386,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1397,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1408,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1419,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1430,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.21999999999979</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1441,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34499999999979</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1452,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.47999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1463,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.85999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1474,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41499999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1485,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>145.3950000000004</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -1496,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.4750000000004</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
@@ -1507,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3200000000004</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35">
@@ -1518,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>168.7700000000004</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
@@ -1529,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>166.2650000000004</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37">
@@ -1540,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>319.4600000000002</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1551,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>311.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1562,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>323.4300000000002</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1573,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>319.05</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1584,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>325.9</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>119.4600000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1697,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>111.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1708,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>123.4300000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1719,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>119.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1730,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>125.9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,94 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
